--- a/src/main/resources/data/search.xlsx
+++ b/src/main/resources/data/search.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="7280"/>
+    <workbookView windowWidth="28000" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":${projectId},"graphId":${graphId},"predicate":"</t>
     </r>
     <r>
@@ -109,6 +116,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":${projectId},"graphId":${graphId},"predicate":"</t>
     </r>
     <r>
@@ -177,6 +191,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":${projectId},"graphId":${graphId},"predicate":"</t>
     </r>
     <r>
@@ -245,6 +266,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"graphId":2925,"predicate":"</t>
     </r>
     <r>
@@ -316,6 +344,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":1426,"predicate":"</t>
     </r>
     <r>
@@ -384,6 +419,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":1426,"graphId":2925,"categoryIds":["</t>
     </r>
     <r>
@@ -432,6 +474,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":1426,"graphId":2925,"predicate":"</t>
     </r>
     <r>
@@ -460,6 +509,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":null,"graphId":2925,"predicate":"</t>
     </r>
     <r>
@@ -528,6 +584,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":1426,"graphId":null,"predicate":"</t>
     </r>
     <r>
@@ -596,6 +659,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":1426,"graphId":2925,"predicate":"","categoryIds":["</t>
     </r>
     <r>
@@ -644,6 +714,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":1426,"graphId":2925,"predicate":"ta","categoryIds":["</t>
     </r>
     <r>
@@ -692,6 +769,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":1426,"graphId":2925,"predicate":"</t>
     </r>
     <r>
@@ -720,6 +804,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":1426,"graphId":2925,"predicate":"</t>
     </r>
     <r>
@@ -748,6 +839,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":1334,"graphId":2497,"predicate":"</t>
     </r>
     <r>
@@ -788,13 +885,19 @@
     </r>
   </si>
   <si>
-    <t>无权访问</t>
+    <t>无权</t>
   </si>
   <si>
     <t>图分析视图-search-同账号非当前项目标签不能查询</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":1426,"graphId":2837,"predicate":"</t>
     </r>
     <r>
@@ -835,13 +938,19 @@
     </r>
   </si>
   <si>
-    <t>无权</t>
+    <t>该视图不属于此项目</t>
   </si>
   <si>
     <t>图分析视图-search-项目下不存在的标签不能查询</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"projectId":1426,"graphId":2772,"predicate":"</t>
     </r>
     <r>
@@ -888,8 +997,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
@@ -940,6 +1049,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -955,31 +1094,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,8 +1147,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,28 +1177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1038,47 +1185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,7 +1227,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,7 +1251,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,7 +1281,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,13 +1299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,7 +1311,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1335,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,13 +1377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,91 +1401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,15 +1509,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1429,17 +1529,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1460,27 +1580,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1489,145 +1598,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2851,11 +2960,11 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
@@ -3128,7 +3237,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="10">
-        <v>401</v>
+        <v>90009</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>36</v>
@@ -3146,7 +3255,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="10">
-        <v>90009</v>
+        <v>90017</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>39</v>
@@ -3167,7 +3276,7 @@
         <v>90009</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
